--- a/Profits Possibilities.xlsx
+++ b/Profits Possibilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6CC560-7DB0-4223-9B94-FA22335DBFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2BD7FA-D6E5-43F1-AECD-6E6D35A65362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Possiblity lev 10" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +385,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6295,10 +6298,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:F91"/>
+  <dimension ref="B1:F86"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:F50"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6344,604 +6347,604 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D3" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="13">
         <f>D3*C3</f>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F3" s="8">
-        <f>6000+(6000*E3)</f>
-        <v>6900</v>
+        <f>6500+(6500*E3)</f>
+        <v>7670</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E49" si="0">D4*C4</f>
-        <v>0.15</v>
+        <f t="shared" ref="E4:E44" si="0">D4*C4</f>
+        <v>0.18</v>
       </c>
       <c r="F4" s="8">
         <f>F3+(F3*E4)</f>
-        <v>7935</v>
+        <v>9050.6</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
-        <v>-0.01</v>
+      <c r="C5" s="13">
+        <v>0.01</v>
       </c>
       <c r="D5" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="0"/>
-        <v>-0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F5" s="8">
         <f>F4+(F4*E5)</f>
-        <v>7141.5</v>
+        <v>10136.672</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
-        <v>1.4999999999999999E-2</v>
+      <c r="C6" s="44">
+        <v>0</v>
       </c>
       <c r="D6" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
         <f>F5+(F5*E6)</f>
-        <v>8212.7250000000004</v>
+        <v>10136.672</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D7" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:F49" si="1">F6+(F6*E7)</f>
-        <v>9444.6337500000009</v>
+        <f t="shared" ref="F7:F44" si="1">F6+(F6*E7)</f>
+        <v>11961.27296</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D8" s="11">
-        <v>10</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>10861.328812500002</v>
+      <c r="D8" s="12">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
+        <v>14114.302092800001</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="23">
-        <v>-0.01</v>
+      <c r="C9" s="13">
+        <v>0.01</v>
       </c>
       <c r="D9" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="13">
         <f t="shared" si="0"/>
-        <v>-0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="1"/>
-        <v>9775.1959312500021</v>
+        <v>15808.018343936001</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="44">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>15808.018343936001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D10" s="11">
-        <v>10</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>11241.475320937503</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="6">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D11" s="12">
-        <v>10</v>
-      </c>
-      <c r="E11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="1"/>
-        <v>12927.696619078128</v>
+      <c r="D11" s="11">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>18653.46164584448</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D12" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="13">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="1"/>
-        <v>14866.851111939846</v>
+        <v>22011.084742096486</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="23">
-        <v>-0.01</v>
+      <c r="C13" s="13">
+        <v>0.01</v>
       </c>
       <c r="D13" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" si="0"/>
-        <v>-0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="1"/>
-        <v>13380.166000745861</v>
+        <v>24652.414911148066</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
-        <v>1.4999999999999999E-2</v>
+      <c r="C14" s="44">
+        <v>0</v>
       </c>
       <c r="D14" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="1"/>
-        <v>15387.19090085774</v>
+        <v>24652.414911148066</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D15" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="1"/>
-        <v>17695.269535986401</v>
+        <v>29089.849595154716</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D16" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>20349.55996638436</v>
+        <v>34326.022522282561</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>15</v>
       </c>
-      <c r="C17" s="23">
-        <v>-0.01</v>
-      </c>
-      <c r="D17" s="11">
-        <v>10</v>
-      </c>
-      <c r="E17" s="13">
-        <f t="shared" si="0"/>
-        <v>-0.1</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="1"/>
-        <v>18314.603969745924</v>
+      <c r="C17" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="12">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>38445.145224956468</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="9">
-        <v>0.02</v>
+      <c r="C18" s="44">
+        <v>0</v>
       </c>
       <c r="D18" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
-        <v>21977.52476369511</v>
+        <v>38445.145224956468</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="9">
         <v>0.02</v>
       </c>
       <c r="D19" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19" s="13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="1"/>
-        <v>26373.029716434132</v>
+        <v>47671.980078946021</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="13">
         <v>0.02</v>
       </c>
       <c r="D20" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="1"/>
-        <v>31647.63565972096</v>
+        <v>59113.255297893062</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="23">
-        <v>-0.01</v>
+      <c r="C21" s="13">
+        <v>0.01</v>
       </c>
       <c r="D21" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="0"/>
-        <v>-0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="1"/>
-        <v>28482.872093748862</v>
+        <v>66206.84593364023</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.02</v>
+      <c r="C22" s="44">
+        <v>0</v>
       </c>
       <c r="D22" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="1"/>
-        <v>34179.446512498631</v>
+        <v>66206.84593364023</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="13">
         <v>0.02</v>
       </c>
       <c r="D23" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="1"/>
-        <v>41015.335814998354</v>
+        <v>82096.488957713882</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>22</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="14">
         <v>0.02</v>
       </c>
-      <c r="D24" s="11">
-        <v>10</v>
-      </c>
-      <c r="E24" s="13">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="1"/>
-        <v>49218.402977998026</v>
+      <c r="D24" s="12">
+        <v>11</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="1"/>
+        <v>100157.71652841094</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="23">
-        <v>-0.01</v>
+      <c r="C25" s="13">
+        <v>0.01</v>
       </c>
       <c r="D25" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="0"/>
-        <v>-0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="1"/>
-        <v>44296.562680198222</v>
+        <v>111175.06534653614</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.02</v>
+      <c r="C26" s="44">
+        <v>0</v>
       </c>
       <c r="D26" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="1"/>
-        <v>53155.875216237866</v>
+        <v>111175.06534653614</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="13">
         <v>0.02</v>
       </c>
       <c r="D27" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" si="1"/>
-        <v>63787.050259485441</v>
+        <v>128963.07580198192</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="13">
         <v>0.02</v>
       </c>
       <c r="D28" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" si="1"/>
-        <v>76544.460311382529</v>
+        <v>149597.16793029904</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="23">
-        <v>-0.01</v>
+      <c r="C29" s="13">
+        <v>0.01</v>
       </c>
       <c r="D29" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="0"/>
-        <v>-0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" si="1"/>
-        <v>68890.014280244272</v>
+        <v>160068.96968541999</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.02</v>
+      <c r="C30" s="44">
+        <v>0</v>
       </c>
       <c r="D30" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" si="1"/>
-        <v>82668.017136293129</v>
+        <v>160068.96968541999</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="13">
         <v>0.02</v>
       </c>
       <c r="D31" s="11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="1"/>
-        <v>99201.620563551754</v>
+        <v>179277.24604767037</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="14">
         <v>0.02</v>
       </c>
       <c r="D32" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E32" s="14">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="1"/>
-        <v>119041.94467626211</v>
+        <v>200790.51557339082</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="23">
-        <v>-0.01</v>
+      <c r="C33" s="13">
+        <v>0.01</v>
       </c>
       <c r="D33" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="0"/>
-        <v>-0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="1"/>
-        <v>107137.7502086359</v>
+        <v>210830.04135206036</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.02</v>
+      <c r="C34" s="44">
+        <v>0</v>
       </c>
       <c r="D34" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E34" s="13">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="1"/>
-        <v>124279.79024201765</v>
+        <v>210830.04135206036</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6952,15 +6955,15 @@
         <v>0.02</v>
       </c>
       <c r="D35" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" si="1"/>
-        <v>144164.55668074047</v>
+        <v>231913.04548726638</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6971,53 +6974,53 @@
         <v>0.02</v>
       </c>
       <c r="D36" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="1"/>
-        <v>167230.88574965895</v>
+        <v>250466.08912624768</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>36</v>
       </c>
-      <c r="C37" s="23">
-        <v>-0.01</v>
+      <c r="C37" s="13">
+        <v>0.01</v>
       </c>
       <c r="D37" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="0"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="1"/>
-        <v>155524.72374718281</v>
+        <v>260484.7326912976</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" s="3">
-        <v>0.02</v>
+      <c r="C38" s="44">
+        <v>0</v>
       </c>
       <c r="D38" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="1"/>
-        <v>177298.18507178841</v>
+        <v>260484.7326912976</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7028,15 +7031,15 @@
         <v>0.02</v>
       </c>
       <c r="D39" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="1"/>
-        <v>195028.00357896724</v>
+        <v>281323.5113066014</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7047,53 +7050,53 @@
         <v>0.02</v>
       </c>
       <c r="D40" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="1"/>
-        <v>214530.80393686396</v>
+        <v>303829.39221112954</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>40</v>
       </c>
-      <c r="C41" s="23">
-        <v>-0.01</v>
+      <c r="C41" s="13">
+        <v>0.01</v>
       </c>
       <c r="D41" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>203804.26374002075</v>
+        <v>312944.27397746342</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>41</v>
       </c>
-      <c r="C42" s="3">
-        <v>0.02</v>
+      <c r="C42" s="44">
+        <v>0</v>
       </c>
       <c r="D42" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" si="1"/>
-        <v>224184.69011402281</v>
+        <v>312944.27397746342</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7104,181 +7107,131 @@
         <v>0.02</v>
       </c>
       <c r="D43" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" si="1"/>
-        <v>246603.1591254251</v>
+        <v>331720.93041611125</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="1">
+      <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="14">
         <v>0.02</v>
       </c>
-      <c r="D44" s="11">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" si="1"/>
-        <v>266331.4118554591</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="12">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="1"/>
+        <v>351624.1862410779</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
-        <v>44</v>
-      </c>
-      <c r="C45" s="23">
-        <v>-0.01</v>
-      </c>
-      <c r="D45" s="11">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.04</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="1"/>
-        <v>255678.15538124074</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
+    </row>
+    <row r="46" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
-        <v>45</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="D46" s="11">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="F46" s="8">
-        <f t="shared" si="1"/>
-        <v>276132.40781174001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
-        <v>46</v>
-      </c>
-      <c r="C47" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D47" s="11">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="F47" s="8">
-        <f t="shared" si="1"/>
-        <v>292700.35228044441</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
-        <v>47</v>
-      </c>
-      <c r="C48" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D48" s="11">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" si="1"/>
-        <v>310262.37341727107</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="6">
-        <v>48</v>
-      </c>
-      <c r="C49" s="24">
-        <v>-0.01</v>
-      </c>
-      <c r="D49" s="12">
-        <v>3</v>
-      </c>
-      <c r="E49" s="7">
-        <f t="shared" si="0"/>
-        <v>-0.03</v>
-      </c>
-      <c r="F49" s="10">
-        <f t="shared" si="1"/>
-        <v>300954.50221475295</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>53</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
-        <v>49</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="40"/>
+        <v>54</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="11"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="8"/>
     </row>
     <row r="52" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
-        <v>51</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="8"/>
     </row>
     <row r="53" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
-        <v>52</v>
-      </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
-        <v>53</v>
-      </c>
-      <c r="C54" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C54" s="13"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="8"/>
     </row>
     <row r="55" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="3"/>
@@ -7287,25 +7240,25 @@
     </row>
     <row r="56" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
-        <v>55</v>
-      </c>
-      <c r="C56" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="C56" s="23"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="8"/>
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
-        <v>56</v>
-      </c>
-      <c r="C57" s="23"/>
+        <v>61</v>
+      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -7314,34 +7267,34 @@
     </row>
     <row r="59" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
-        <v>58</v>
-      </c>
-      <c r="C59" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="8"/>
     </row>
     <row r="60" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
-        <v>59</v>
-      </c>
-      <c r="C60" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="8"/>
     </row>
     <row r="61" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
-        <v>60</v>
-      </c>
-      <c r="C61" s="23"/>
+        <v>65</v>
+      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
     </row>
     <row r="62" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -7350,7 +7303,7 @@
     </row>
     <row r="63" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -7359,7 +7312,7 @@
     </row>
     <row r="64" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -7368,7 +7321,7 @@
     </row>
     <row r="65" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -7377,7 +7330,7 @@
     </row>
     <row r="66" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -7386,7 +7339,7 @@
     </row>
     <row r="67" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -7395,7 +7348,7 @@
     </row>
     <row r="68" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -7404,7 +7357,7 @@
     </row>
     <row r="69" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -7413,7 +7366,7 @@
     </row>
     <row r="70" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -7422,7 +7375,7 @@
     </row>
     <row r="71" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -7431,7 +7384,7 @@
     </row>
     <row r="72" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -7440,7 +7393,7 @@
     </row>
     <row r="73" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -7449,7 +7402,7 @@
     </row>
     <row r="74" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -7458,7 +7411,7 @@
     </row>
     <row r="75" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -7467,7 +7420,7 @@
     </row>
     <row r="76" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -7476,7 +7429,7 @@
     </row>
     <row r="77" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -7485,7 +7438,7 @@
     </row>
     <row r="78" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -7494,7 +7447,7 @@
     </row>
     <row r="79" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -7503,7 +7456,7 @@
     </row>
     <row r="80" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -7512,7 +7465,7 @@
     </row>
     <row r="81" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -7521,7 +7474,7 @@
     </row>
     <row r="82" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -7530,7 +7483,7 @@
     </row>
     <row r="83" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -7539,7 +7492,7 @@
     </row>
     <row r="84" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -7548,7 +7501,7 @@
     </row>
     <row r="85" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -7557,62 +7510,17 @@
     </row>
     <row r="86" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B87" s="1">
-        <v>86</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="8"/>
-    </row>
-    <row r="88" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B88" s="1">
-        <v>87</v>
-      </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B89" s="1">
-        <v>88</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="8"/>
-    </row>
-    <row r="90" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B90" s="1">
-        <v>89</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="8"/>
-    </row>
-    <row r="91" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B91" s="1">
-        <v>90</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C45:F45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9124,7 +9032,7 @@
   </sheetPr>
   <dimension ref="B1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Profits Possibilities.xlsx
+++ b/Profits Possibilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2BD7FA-D6E5-43F1-AECD-6E6D35A65362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6ED25A-0D93-4C33-A668-48915DE2EADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Possiblity lev 10" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Leverage</t>
   </si>
   <si>
-    <t>Average Profit will be = 10,000$ per day</t>
-  </si>
-  <si>
     <t>Average Profit will be = 15,000$ per day</t>
   </si>
   <si>
@@ -65,6 +62,12 @@
   </si>
   <si>
     <t>Average Profit will be = 7,000$ per day</t>
+  </si>
+  <si>
+    <t>Average Profit will be = 10,000$ per day (0.6% per day)</t>
+  </si>
+  <si>
+    <t>Average Profit will be = 20,000$ per day</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -119,36 +122,6 @@
     <font>
       <sz val="9"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="2" tint="-0.749992370372631"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="4" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -258,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,24 +276,6 @@
     <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,10 +285,10 @@
     <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,16 +321,21 @@
     <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,7 +347,7 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +670,7 @@
   <dimension ref="B1:F92"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -724,11 +684,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -754,7 +714,7 @@
       <c r="C3" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="19">
         <v>10</v>
       </c>
       <c r="E3" s="3">
@@ -772,7 +732,7 @@
       <c r="C4" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="19">
         <v>10</v>
       </c>
       <c r="E4" s="3">
@@ -791,7 +751,7 @@
       <c r="C5" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="19">
         <v>10</v>
       </c>
       <c r="E5" s="3">
@@ -810,7 +770,7 @@
       <c r="C6" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="19">
         <v>10</v>
       </c>
       <c r="E6" s="3">
@@ -829,7 +789,7 @@
       <c r="C7" s="3">
         <v>0.02</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="19">
         <v>10</v>
       </c>
       <c r="E7" s="3">
@@ -848,7 +808,7 @@
       <c r="C8" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="19">
         <v>10</v>
       </c>
       <c r="E8" s="3">
@@ -867,7 +827,7 @@
       <c r="C9" s="3">
         <v>0.01</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="19">
         <v>10</v>
       </c>
       <c r="E9" s="3">
@@ -886,7 +846,7 @@
       <c r="C10" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="19">
         <v>10</v>
       </c>
       <c r="E10" s="3">
@@ -905,7 +865,7 @@
       <c r="C11" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="19">
         <v>10</v>
       </c>
       <c r="E11" s="3">
@@ -924,7 +884,7 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="19">
         <v>10</v>
       </c>
       <c r="E12" s="3">
@@ -943,7 +903,7 @@
       <c r="C13" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="19">
         <v>10</v>
       </c>
       <c r="E13" s="3">
@@ -962,7 +922,7 @@
       <c r="C14" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="19">
         <v>10</v>
       </c>
       <c r="E14" s="3">
@@ -981,7 +941,7 @@
       <c r="C15" s="7">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="20">
         <v>10</v>
       </c>
       <c r="E15" s="7">
@@ -1000,7 +960,7 @@
       <c r="C16" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="19">
         <v>10</v>
       </c>
       <c r="E16" s="3">
@@ -1019,7 +979,7 @@
       <c r="C17" s="3">
         <v>0.02</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="19">
         <v>10</v>
       </c>
       <c r="E17" s="3">
@@ -1038,7 +998,7 @@
       <c r="C18" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="19">
         <v>10</v>
       </c>
       <c r="E18" s="3">
@@ -1057,7 +1017,7 @@
       <c r="C19" s="3">
         <v>0.01</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="19">
         <v>10</v>
       </c>
       <c r="E19" s="3">
@@ -1076,7 +1036,7 @@
       <c r="C20" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="19">
         <v>10</v>
       </c>
       <c r="E20" s="3">
@@ -1095,7 +1055,7 @@
       <c r="C21" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="19">
         <v>10</v>
       </c>
       <c r="E21" s="3">
@@ -1114,7 +1074,7 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="19">
         <v>10</v>
       </c>
       <c r="E22" s="3">
@@ -1133,7 +1093,7 @@
       <c r="C23" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="19">
         <v>10</v>
       </c>
       <c r="E23" s="3">
@@ -1152,7 +1112,7 @@
       <c r="C24" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="19">
         <v>10</v>
       </c>
       <c r="E24" s="3">
@@ -1171,7 +1131,7 @@
       <c r="C25" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="19">
         <v>10</v>
       </c>
       <c r="E25" s="3">
@@ -1190,7 +1150,7 @@
       <c r="C26" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="19">
         <v>10</v>
       </c>
       <c r="E26" s="3">
@@ -1209,7 +1169,7 @@
       <c r="C27" s="3">
         <v>0.02</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="19">
         <v>10</v>
       </c>
       <c r="E27" s="3">
@@ -1228,7 +1188,7 @@
       <c r="C28" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="19">
         <v>10</v>
       </c>
       <c r="E28" s="3">
@@ -1247,7 +1207,7 @@
       <c r="C29" s="3">
         <v>0.01</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="19">
         <v>10</v>
       </c>
       <c r="E29" s="3">
@@ -1266,7 +1226,7 @@
       <c r="C30" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="19">
         <v>10</v>
       </c>
       <c r="E30" s="3">
@@ -1285,7 +1245,7 @@
       <c r="C31" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="19">
         <v>10</v>
       </c>
       <c r="E31" s="3">
@@ -1304,7 +1264,7 @@
       <c r="C32" s="7">
         <v>0</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="20">
         <v>10</v>
       </c>
       <c r="E32" s="7">
@@ -1323,7 +1283,7 @@
       <c r="C33" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="19">
         <v>10</v>
       </c>
       <c r="E33" s="3">
@@ -1342,7 +1302,7 @@
       <c r="C34" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="19">
         <v>10</v>
       </c>
       <c r="E34" s="3">
@@ -1361,7 +1321,7 @@
       <c r="C35" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="19">
         <v>10</v>
       </c>
       <c r="E35" s="3">
@@ -1380,7 +1340,7 @@
       <c r="C36" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="19">
         <v>10</v>
       </c>
       <c r="E36" s="3">
@@ -1399,7 +1359,7 @@
       <c r="C37" s="3">
         <v>0.02</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="19">
         <v>10</v>
       </c>
       <c r="E37" s="3">
@@ -1418,7 +1378,7 @@
       <c r="C38" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="19">
         <v>10</v>
       </c>
       <c r="E38" s="3">
@@ -1437,7 +1397,7 @@
       <c r="C39" s="3">
         <v>0.01</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="19">
         <v>10</v>
       </c>
       <c r="E39" s="3">
@@ -1456,7 +1416,7 @@
       <c r="C40" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="19">
         <v>10</v>
       </c>
       <c r="E40" s="3">
@@ -1475,7 +1435,7 @@
       <c r="C41" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="19">
         <v>10</v>
       </c>
       <c r="E41" s="3">
@@ -1494,7 +1454,7 @@
       <c r="C42" s="3">
         <v>0</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="19">
         <v>10</v>
       </c>
       <c r="E42" s="3">
@@ -1513,7 +1473,7 @@
       <c r="C43" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="19">
         <v>10</v>
       </c>
       <c r="E43" s="3">
@@ -1532,7 +1492,7 @@
       <c r="C44" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="19">
         <v>10</v>
       </c>
       <c r="E44" s="3">
@@ -1551,7 +1511,7 @@
       <c r="C45" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="19">
         <v>10</v>
       </c>
       <c r="E45" s="3">
@@ -1570,7 +1530,7 @@
       <c r="C46" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="19">
         <v>10</v>
       </c>
       <c r="E46" s="3">
@@ -1589,7 +1549,7 @@
       <c r="C47" s="7">
         <v>0.02</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="20">
         <v>10</v>
       </c>
       <c r="E47" s="7">
@@ -1608,7 +1568,7 @@
       <c r="C48" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="19">
         <v>10</v>
       </c>
       <c r="E48" s="3">
@@ -1627,7 +1587,7 @@
       <c r="C49" s="3">
         <v>0.01</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="19">
         <v>10</v>
       </c>
       <c r="E49" s="3">
@@ -1646,7 +1606,7 @@
       <c r="C50" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="19">
         <v>10</v>
       </c>
       <c r="E50" s="3">
@@ -1665,7 +1625,7 @@
       <c r="C51" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="19">
         <v>10</v>
       </c>
       <c r="E51" s="3">
@@ -1684,7 +1644,7 @@
       <c r="C52" s="3">
         <v>0</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="19">
         <v>10</v>
       </c>
       <c r="E52" s="3">
@@ -1703,7 +1663,7 @@
       <c r="C53" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="19">
         <v>10</v>
       </c>
       <c r="E53" s="3">
@@ -1722,7 +1682,7 @@
       <c r="C54" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="19">
         <v>10</v>
       </c>
       <c r="E54" s="3">
@@ -1741,7 +1701,7 @@
       <c r="C55" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="19">
         <v>9</v>
       </c>
       <c r="E55" s="3">
@@ -1760,7 +1720,7 @@
       <c r="C56" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="19">
         <v>9</v>
       </c>
       <c r="E56" s="3">
@@ -1779,7 +1739,7 @@
       <c r="C57" s="3">
         <v>0.02</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="19">
         <v>8</v>
       </c>
       <c r="E57" s="3">
@@ -1798,7 +1758,7 @@
       <c r="C58" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="19">
         <v>8</v>
       </c>
       <c r="E58" s="3">
@@ -1817,7 +1777,7 @@
       <c r="C59" s="3">
         <v>0.01</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="19">
         <v>8</v>
       </c>
       <c r="E59" s="3">
@@ -1836,7 +1796,7 @@
       <c r="C60" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="19">
         <v>7</v>
       </c>
       <c r="E60" s="3">
@@ -1855,7 +1815,7 @@
       <c r="C61" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="19">
         <v>7</v>
       </c>
       <c r="E61" s="3">
@@ -1874,7 +1834,7 @@
       <c r="C62" s="7">
         <v>0</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D62" s="20">
         <v>7</v>
       </c>
       <c r="E62" s="7">
@@ -1893,7 +1853,7 @@
       <c r="C63" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D63" s="25">
+      <c r="D63" s="19">
         <v>7</v>
       </c>
       <c r="E63" s="3">
@@ -1912,7 +1872,7 @@
       <c r="C64" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="19">
         <v>7</v>
       </c>
       <c r="E64" s="3">
@@ -1931,7 +1891,7 @@
       <c r="C65" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="19">
         <v>6</v>
       </c>
       <c r="E65" s="3">
@@ -1950,7 +1910,7 @@
       <c r="C66" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D66" s="19">
         <v>6</v>
       </c>
       <c r="E66" s="3">
@@ -1969,7 +1929,7 @@
       <c r="C67" s="3">
         <v>0.02</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D67" s="19">
         <v>5</v>
       </c>
       <c r="E67" s="3">
@@ -1988,7 +1948,7 @@
       <c r="C68" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="19">
         <v>5</v>
       </c>
       <c r="E68" s="3">
@@ -2007,7 +1967,7 @@
       <c r="C69" s="3">
         <v>0.01</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D69" s="19">
         <v>5</v>
       </c>
       <c r="E69" s="3">
@@ -2026,7 +1986,7 @@
       <c r="C70" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D70" s="25">
+      <c r="D70" s="19">
         <v>5</v>
       </c>
       <c r="E70" s="3">
@@ -2045,7 +2005,7 @@
       <c r="C71" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D71" s="25">
+      <c r="D71" s="19">
         <v>5</v>
       </c>
       <c r="E71" s="3">
@@ -2064,7 +2024,7 @@
       <c r="C72" s="3">
         <v>0</v>
       </c>
-      <c r="D72" s="25">
+      <c r="D72" s="19">
         <v>5</v>
       </c>
       <c r="E72" s="3">
@@ -2083,7 +2043,7 @@
       <c r="C73" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D73" s="19">
         <v>5</v>
       </c>
       <c r="E73" s="3">
@@ -2102,7 +2062,7 @@
       <c r="C74" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="19">
         <v>5</v>
       </c>
       <c r="E74" s="3">
@@ -2121,7 +2081,7 @@
       <c r="C75" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D75" s="25">
+      <c r="D75" s="19">
         <v>5</v>
       </c>
       <c r="E75" s="3">
@@ -2140,7 +2100,7 @@
       <c r="C76" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D76" s="25">
+      <c r="D76" s="19">
         <v>5</v>
       </c>
       <c r="E76" s="3">
@@ -2159,7 +2119,7 @@
       <c r="C77" s="3">
         <v>0.02</v>
       </c>
-      <c r="D77" s="25">
+      <c r="D77" s="19">
         <v>5</v>
       </c>
       <c r="E77" s="3">
@@ -2178,7 +2138,7 @@
       <c r="C78" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D78" s="25">
+      <c r="D78" s="19">
         <v>5</v>
       </c>
       <c r="E78" s="3">
@@ -2197,7 +2157,7 @@
       <c r="C79" s="3">
         <v>0.01</v>
       </c>
-      <c r="D79" s="25">
+      <c r="D79" s="19">
         <v>4</v>
       </c>
       <c r="E79" s="3">
@@ -2216,7 +2176,7 @@
       <c r="C80" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D80" s="25">
+      <c r="D80" s="19">
         <v>4</v>
       </c>
       <c r="E80" s="3">
@@ -2235,7 +2195,7 @@
       <c r="C81" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D81" s="19">
         <v>4</v>
       </c>
       <c r="E81" s="3">
@@ -2254,7 +2214,7 @@
       <c r="C82" s="3">
         <v>0</v>
       </c>
-      <c r="D82" s="25">
+      <c r="D82" s="19">
         <v>4</v>
       </c>
       <c r="E82" s="3">
@@ -2273,7 +2233,7 @@
       <c r="C83" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D83" s="25">
+      <c r="D83" s="19">
         <v>4</v>
       </c>
       <c r="E83" s="3">
@@ -2292,7 +2252,7 @@
       <c r="C84" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D84" s="25">
+      <c r="D84" s="19">
         <v>3</v>
       </c>
       <c r="E84" s="3">
@@ -2311,7 +2271,7 @@
       <c r="C85" s="7">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D85" s="26">
+      <c r="D85" s="20">
         <v>3</v>
       </c>
       <c r="E85" s="7">
@@ -2327,19 +2287,19 @@
       <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="C86" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="40"/>
+      <c r="C86" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="37"/>
     </row>
     <row r="87" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>85</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="25"/>
+      <c r="D87" s="19"/>
       <c r="E87" s="3"/>
       <c r="F87" s="8"/>
     </row>
@@ -2348,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="C88" s="3"/>
-      <c r="D88" s="25"/>
+      <c r="D88" s="19"/>
       <c r="E88" s="3"/>
       <c r="F88" s="8"/>
     </row>
@@ -2357,7 +2317,7 @@
         <v>87</v>
       </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="25"/>
+      <c r="D89" s="19"/>
       <c r="E89" s="3"/>
       <c r="F89" s="8"/>
     </row>
@@ -2366,7 +2326,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="25"/>
+      <c r="D90" s="19"/>
       <c r="E90" s="3"/>
       <c r="F90" s="8"/>
     </row>
@@ -2375,7 +2335,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="3"/>
-      <c r="D91" s="25"/>
+      <c r="D91" s="19"/>
       <c r="E91" s="3"/>
       <c r="F91" s="8"/>
     </row>
@@ -2384,7 +2344,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="3"/>
-      <c r="D92" s="25"/>
+      <c r="D92" s="19"/>
       <c r="E92" s="3"/>
       <c r="F92" s="8"/>
     </row>
@@ -2403,10 +2363,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:F87"/>
+  <dimension ref="B1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2419,14 +2379,14 @@
     <col min="7" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2443,14 +2403,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="19">
         <v>12</v>
       </c>
       <c r="E3" s="3">
@@ -2458,17 +2418,18 @@
         <v>0.18</v>
       </c>
       <c r="F3" s="4">
-        <v>6630</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f>7500+(7500*E3)</f>
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="19">
         <v>12</v>
       </c>
       <c r="E4" s="3">
@@ -2477,17 +2438,17 @@
       </c>
       <c r="F4" s="8">
         <f>F3+(F3*E4)</f>
-        <v>7027.8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9381</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="19">
         <v>12</v>
       </c>
       <c r="E5" s="3">
@@ -2496,17 +2457,18 @@
       </c>
       <c r="F5" s="8">
         <f t="shared" ref="F5:F68" si="1">F4+(F4*E5)</f>
-        <v>7660.3019999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10225.290000000001</v>
+      </c>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="19">
         <v>12</v>
       </c>
       <c r="E6" s="3">
@@ -2515,17 +2477,17 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="1"/>
-        <v>7200.6838799999996</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9611.7726000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>0.02</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="19">
         <v>12</v>
       </c>
       <c r="E7" s="3">
@@ -2534,17 +2496,17 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" si="1"/>
-        <v>8928.8480111999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11918.598024000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="19">
         <v>12</v>
       </c>
       <c r="E8" s="3">
@@ -2553,17 +2515,17 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" si="1"/>
-        <v>8393.1171305280004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11203.48214256</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>0.01</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="19">
         <v>12</v>
       </c>
       <c r="E9" s="3">
@@ -2572,17 +2534,17 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" si="1"/>
-        <v>9400.2911861913599</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12547.899999667201</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="19">
         <v>12</v>
       </c>
       <c r="E10" s="3">
@@ -2591,17 +2553,17 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>9964.3086573628407</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13300.773999647234</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="19">
         <v>12</v>
       </c>
       <c r="E11" s="3">
@@ -2610,17 +2572,17 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" si="1"/>
-        <v>10861.096436525497</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14497.843659615484</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="19">
         <v>12</v>
       </c>
       <c r="E12" s="3">
@@ -2629,17 +2591,17 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" si="1"/>
-        <v>10861.096436525497</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14497.843659615484</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>11</v>
       </c>
       <c r="C13" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="20">
         <v>12</v>
       </c>
       <c r="E13" s="7">
@@ -2648,17 +2610,17 @@
       </c>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>12816.093795100085</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17107.455518346273</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="19">
         <v>12</v>
       </c>
       <c r="E14" s="3">
@@ -2667,17 +2629,17 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" si="1"/>
-        <v>13585.059422806091</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18133.902849447048</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="19">
         <v>12</v>
       </c>
       <c r="E15" s="3">
@@ -2686,17 +2648,17 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" si="1"/>
-        <v>14807.714770858638</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19765.954105897283</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="19">
         <v>12</v>
       </c>
       <c r="E16" s="3">
@@ -2705,7 +2667,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>13919.25188460712</v>
+        <v>18579.996859543447</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2715,7 +2677,7 @@
       <c r="C17" s="3">
         <v>0.02</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="19">
         <v>12</v>
       </c>
       <c r="E17" s="3">
@@ -2724,7 +2686,7 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" si="1"/>
-        <v>17259.872336912827</v>
+        <v>23039.196105833875</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2734,7 +2696,7 @@
       <c r="C18" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="19">
         <v>12</v>
       </c>
       <c r="E18" s="3">
@@ -2743,7 +2705,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
-        <v>16224.279996698058</v>
+        <v>21656.844339483843</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2753,7 +2715,7 @@
       <c r="C19" s="3">
         <v>0.01</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="19">
         <v>12</v>
       </c>
       <c r="E19" s="3">
@@ -2762,7 +2724,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" si="1"/>
-        <v>18171.193596301826</v>
+        <v>24255.665660221905</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2772,7 +2734,7 @@
       <c r="C20" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="19">
         <v>12</v>
       </c>
       <c r="E20" s="3">
@@ -2781,7 +2743,7 @@
       </c>
       <c r="F20" s="8">
         <f t="shared" si="1"/>
-        <v>19261.465212079936</v>
+        <v>25711.005599835218</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2791,7 +2753,7 @@
       <c r="C21" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="19">
         <v>12</v>
       </c>
       <c r="E21" s="3">
@@ -2800,7 +2762,7 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" si="1"/>
-        <v>20994.99708116713</v>
+        <v>28024.996103820387</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2810,7 +2772,7 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="19">
         <v>12</v>
       </c>
       <c r="E22" s="3">
@@ -2819,7 +2781,7 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="1"/>
-        <v>20994.99708116713</v>
+        <v>28024.996103820387</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2829,7 +2791,7 @@
       <c r="C23" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="19">
         <v>12</v>
       </c>
       <c r="E23" s="3">
@@ -2838,7 +2800,7 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="1"/>
-        <v>24774.096555777214</v>
+        <v>33069.495402508059</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2848,7 +2810,7 @@
       <c r="C24" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="19">
         <v>12</v>
       </c>
       <c r="E24" s="3">
@@ -2857,7 +2819,7 @@
       </c>
       <c r="F24" s="8">
         <f t="shared" si="1"/>
-        <v>26260.542349123847</v>
+        <v>35053.66512665854</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2867,7 +2829,7 @@
       <c r="C25" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="19">
         <v>12</v>
       </c>
       <c r="E25" s="3">
@@ -2876,7 +2838,7 @@
       </c>
       <c r="F25" s="8">
         <f t="shared" si="1"/>
-        <v>28623.991160544992</v>
+        <v>38208.494988057806</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2886,7 +2848,7 @@
       <c r="C26" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="19">
         <v>12</v>
       </c>
       <c r="E26" s="3">
@@ -2895,7 +2857,7 @@
       </c>
       <c r="F26" s="8">
         <f t="shared" si="1"/>
-        <v>26906.551690912293</v>
+        <v>35915.98528877434</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2905,7 +2867,7 @@
       <c r="C27" s="3">
         <v>0.02</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="19">
         <v>12</v>
       </c>
       <c r="E27" s="3">
@@ -2914,7 +2876,7 @@
       </c>
       <c r="F27" s="8">
         <f t="shared" si="1"/>
-        <v>33364.124096731241</v>
+        <v>44535.821758080179</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2924,7 +2886,7 @@
       <c r="C28" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="19">
         <v>12</v>
       </c>
       <c r="E28" s="3">
@@ -2933,7 +2895,7 @@
       </c>
       <c r="F28" s="8">
         <f t="shared" si="1"/>
-        <v>31362.276650927368</v>
+        <v>41863.672452595369</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2943,7 +2905,7 @@
       <c r="C29" s="3">
         <v>0.01</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="19">
         <v>12</v>
       </c>
       <c r="E29" s="3">
@@ -2952,7 +2914,7 @@
       </c>
       <c r="F29" s="8">
         <f t="shared" si="1"/>
-        <v>35125.74984903865</v>
+        <v>46887.31314690681</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2962,7 +2924,7 @@
       <c r="C30" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="19">
         <v>12</v>
       </c>
       <c r="E30" s="3">
@@ -2971,7 +2933,7 @@
       </c>
       <c r="F30" s="8">
         <f t="shared" si="1"/>
-        <v>37233.294839980968</v>
+        <v>49700.551935721218</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2981,7 +2943,7 @@
       <c r="C31" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="19">
         <v>12</v>
       </c>
       <c r="E31" s="3">
@@ -2990,7 +2952,7 @@
       </c>
       <c r="F31" s="8">
         <f t="shared" si="1"/>
-        <v>40584.291375579254</v>
+        <v>54173.60160993613</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3000,7 +2962,7 @@
       <c r="C32" s="7">
         <v>0</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="20">
         <v>12</v>
       </c>
       <c r="E32" s="7">
@@ -3009,7 +2971,7 @@
       </c>
       <c r="F32" s="10">
         <f t="shared" si="1"/>
-        <v>40584.291375579254</v>
+        <v>54173.60160993613</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3019,7 +2981,7 @@
       <c r="C33" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="19">
         <v>12</v>
       </c>
       <c r="E33" s="3">
@@ -3028,7 +2990,7 @@
       </c>
       <c r="F33" s="8">
         <f t="shared" si="1"/>
-        <v>47889.46382318352</v>
+        <v>63924.849899724635</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3038,7 +3000,7 @@
       <c r="C34" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="19">
         <v>12</v>
       </c>
       <c r="E34" s="3">
@@ -3047,7 +3009,7 @@
       </c>
       <c r="F34" s="8">
         <f t="shared" si="1"/>
-        <v>50762.831652574532</v>
+        <v>67760.340893708111</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3057,7 +3019,7 @@
       <c r="C35" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="19">
         <v>12</v>
       </c>
       <c r="E35" s="3">
@@ -3066,7 +3028,7 @@
       </c>
       <c r="F35" s="8">
         <f t="shared" si="1"/>
-        <v>55331.486501306237</v>
+        <v>73858.771574141836</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3076,7 +3038,7 @@
       <c r="C36" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="19">
         <v>12</v>
       </c>
       <c r="E36" s="3">
@@ -3085,7 +3047,7 @@
       </c>
       <c r="F36" s="8">
         <f t="shared" si="1"/>
-        <v>52011.597311227866</v>
+        <v>69427.245279693321</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3095,7 +3057,7 @@
       <c r="C37" s="3">
         <v>0.02</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="19">
         <v>12</v>
       </c>
       <c r="E37" s="3">
@@ -3104,7 +3066,7 @@
       </c>
       <c r="F37" s="8">
         <f t="shared" si="1"/>
-        <v>64494.380665922552</v>
+        <v>86089.784146819715</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3114,7 +3076,7 @@
       <c r="C38" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="19">
         <v>12</v>
       </c>
       <c r="E38" s="3">
@@ -3123,7 +3085,7 @@
       </c>
       <c r="F38" s="8">
         <f t="shared" si="1"/>
-        <v>60624.7178259672</v>
+        <v>80924.397098010537</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3133,7 +3095,7 @@
       <c r="C39" s="3">
         <v>0.01</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="19">
         <v>12</v>
       </c>
       <c r="E39" s="3">
@@ -3142,7 +3104,7 @@
       </c>
       <c r="F39" s="8">
         <f t="shared" si="1"/>
-        <v>67899.68396508327</v>
+        <v>90635.324749771797</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3152,7 +3114,7 @@
       <c r="C40" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="19">
         <v>12</v>
       </c>
       <c r="E40" s="3">
@@ -3161,7 +3123,7 @@
       </c>
       <c r="F40" s="8">
         <f t="shared" si="1"/>
-        <v>71973.665002988273</v>
+        <v>96073.444234758106</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3171,7 +3133,7 @@
       <c r="C41" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="19">
         <v>12</v>
       </c>
       <c r="E41" s="3">
@@ -3180,7 +3142,7 @@
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>78451.294853257219</v>
+        <v>104720.05421588634</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3190,7 +3152,7 @@
       <c r="C42" s="3">
         <v>0</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="19">
         <v>12</v>
       </c>
       <c r="E42" s="3">
@@ -3199,7 +3161,7 @@
       </c>
       <c r="F42" s="8">
         <f t="shared" si="1"/>
-        <v>78451.294853257219</v>
+        <v>104720.05421588634</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3209,7 +3171,7 @@
       <c r="C43" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="19">
         <v>12</v>
       </c>
       <c r="E43" s="3">
@@ -3218,7 +3180,7 @@
       </c>
       <c r="F43" s="8">
         <f t="shared" si="1"/>
-        <v>92572.527926843526</v>
+        <v>123569.66397474588</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3228,7 +3190,7 @@
       <c r="C44" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="19">
         <v>12</v>
       </c>
       <c r="E44" s="3">
@@ -3237,7 +3199,7 @@
       </c>
       <c r="F44" s="8">
         <f t="shared" si="1"/>
-        <v>98126.879602454137</v>
+        <v>130983.84381323063</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3247,7 +3209,7 @@
       <c r="C45" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="19">
         <v>10</v>
       </c>
       <c r="E45" s="3">
@@ -3256,7 +3218,7 @@
       </c>
       <c r="F45" s="8">
         <f t="shared" si="1"/>
-        <v>105486.3955726382</v>
+        <v>140807.63209922292</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3266,7 +3228,7 @@
       <c r="C46" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="19">
         <v>10</v>
       </c>
       <c r="E46" s="3">
@@ -3275,7 +3237,7 @@
       </c>
       <c r="F46" s="8">
         <f t="shared" si="1"/>
-        <v>100212.07579400629</v>
+        <v>133767.25049426177</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3285,7 +3247,7 @@
       <c r="C47" s="7">
         <v>0.02</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="20">
         <v>9</v>
       </c>
       <c r="E47" s="7">
@@ -3294,7 +3256,7 @@
       </c>
       <c r="F47" s="10">
         <f t="shared" si="1"/>
-        <v>118250.24943692742</v>
+        <v>157845.35558322887</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3304,7 +3266,7 @@
       <c r="C48" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="19">
         <v>9</v>
       </c>
       <c r="E48" s="3">
@@ -3313,7 +3275,7 @@
       </c>
       <c r="F48" s="8">
         <f t="shared" si="1"/>
-        <v>112928.98821226569</v>
+        <v>150742.31458198358</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3323,7 +3285,7 @@
       <c r="C49" s="3">
         <v>0.01</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="19">
         <v>9</v>
       </c>
       <c r="E49" s="3">
@@ -3332,7 +3294,7 @@
       </c>
       <c r="F49" s="8">
         <f t="shared" si="1"/>
-        <v>123092.5971513696</v>
+        <v>164309.12289436211</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3342,7 +3304,7 @@
       <c r="C50" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="19">
         <v>8</v>
       </c>
       <c r="E50" s="3">
@@ -3351,7 +3313,7 @@
       </c>
       <c r="F50" s="8">
         <f t="shared" si="1"/>
-        <v>128016.30103742439</v>
+        <v>170881.4878101366</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3361,7 +3323,7 @@
       <c r="C51" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="19">
         <v>8</v>
       </c>
       <c r="E51" s="3">
@@ -3370,7 +3332,7 @@
       </c>
       <c r="F51" s="8">
         <f t="shared" si="1"/>
-        <v>135697.27909966986</v>
+        <v>181134.37707874482</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3380,7 +3342,7 @@
       <c r="C52" s="3">
         <v>0</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="19">
         <v>8</v>
       </c>
       <c r="E52" s="3">
@@ -3389,7 +3351,7 @@
       </c>
       <c r="F52" s="8">
         <f t="shared" si="1"/>
-        <v>135697.27909966986</v>
+        <v>181134.37707874482</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3399,7 +3361,7 @@
       <c r="C53" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="19">
         <v>8</v>
       </c>
       <c r="E53" s="3">
@@ -3408,7 +3370,7 @@
       </c>
       <c r="F53" s="8">
         <f t="shared" si="1"/>
-        <v>151980.95259163025</v>
+        <v>202870.50232819418</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3418,7 +3380,7 @@
       <c r="C54" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="19">
         <v>7</v>
       </c>
       <c r="E54" s="3">
@@ -3427,7 +3389,7 @@
       </c>
       <c r="F54" s="8">
         <f t="shared" si="1"/>
-        <v>157300.28593233731</v>
+        <v>209970.96990968098</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3437,7 +3399,7 @@
       <c r="C55" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="19">
         <v>7</v>
       </c>
       <c r="E55" s="3">
@@ -3446,7 +3408,7 @@
       </c>
       <c r="F55" s="8">
         <f t="shared" si="1"/>
-        <v>165558.55094378503</v>
+        <v>220994.44582993924</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3456,7 +3418,7 @@
       <c r="C56" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="19">
         <v>7</v>
       </c>
       <c r="E56" s="3">
@@ -3465,7 +3427,7 @@
       </c>
       <c r="F56" s="8">
         <f t="shared" si="1"/>
-        <v>159764.00166075255</v>
+        <v>213259.64022589137</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3475,7 +3437,7 @@
       <c r="C57" s="3">
         <v>0.02</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="19">
         <v>6</v>
       </c>
       <c r="E57" s="3">
@@ -3484,7 +3446,7 @@
       </c>
       <c r="F57" s="8">
         <f t="shared" si="1"/>
-        <v>178935.68186004285</v>
+        <v>238850.79705299833</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3494,7 +3456,7 @@
       <c r="C58" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="19">
         <v>6</v>
       </c>
       <c r="E58" s="3">
@@ -3503,7 +3465,7 @@
       </c>
       <c r="F58" s="8">
         <f t="shared" si="1"/>
-        <v>173567.61140424156</v>
+        <v>231685.27314140837</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3513,7 +3475,7 @@
       <c r="C59" s="3">
         <v>0.01</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="19">
         <v>6</v>
       </c>
       <c r="E59" s="3">
@@ -3522,7 +3484,7 @@
       </c>
       <c r="F59" s="8">
         <f t="shared" si="1"/>
-        <v>183981.66808849605</v>
+        <v>245586.38952989288</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3532,7 +3494,7 @@
       <c r="C60" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="19">
         <v>6</v>
       </c>
       <c r="E60" s="3">
@@ -3541,7 +3503,7 @@
       </c>
       <c r="F60" s="8">
         <f t="shared" si="1"/>
-        <v>189501.11813115093</v>
+        <v>252953.98121578968</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3551,7 +3513,7 @@
       <c r="C61" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="19">
         <v>6</v>
       </c>
       <c r="E61" s="3">
@@ -3560,7 +3522,7 @@
       </c>
       <c r="F61" s="8">
         <f t="shared" si="1"/>
-        <v>198028.66844705271</v>
+        <v>264336.91037050023</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3570,7 +3532,7 @@
       <c r="C62" s="7">
         <v>0</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D62" s="20">
         <v>5</v>
       </c>
       <c r="E62" s="7">
@@ -3579,7 +3541,7 @@
       </c>
       <c r="F62" s="10">
         <f t="shared" si="1"/>
-        <v>198028.66844705271</v>
+        <v>264336.91037050023</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3589,7 +3551,7 @@
       <c r="C63" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D63" s="25">
+      <c r="D63" s="19">
         <v>5</v>
       </c>
       <c r="E63" s="3">
@@ -3598,7 +3560,7 @@
       </c>
       <c r="F63" s="8">
         <f t="shared" si="1"/>
-        <v>212880.81858058166</v>
+        <v>284162.17864828778</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3608,7 +3570,7 @@
       <c r="C64" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="19">
         <v>5</v>
       </c>
       <c r="E64" s="3">
@@ -3617,17 +3579,17 @@
       </c>
       <c r="F64" s="8">
         <f t="shared" si="1"/>
-        <v>218202.83904509619</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>291266.233114495</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>63</v>
       </c>
       <c r="C65" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="19">
         <v>5</v>
       </c>
       <c r="E65" s="3">
@@ -3636,17 +3598,17 @@
       </c>
       <c r="F65" s="8">
         <f t="shared" si="1"/>
-        <v>226385.4455092873</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>302188.71685628855</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>64</v>
       </c>
       <c r="C66" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D66" s="19">
         <v>5</v>
       </c>
       <c r="E66" s="3">
@@ -3655,17 +3617,17 @@
       </c>
       <c r="F66" s="8">
         <f t="shared" si="1"/>
-        <v>220725.80937155511</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>294633.99893488135</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>65</v>
       </c>
       <c r="C67" s="3">
         <v>0.02</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D67" s="19">
         <v>5</v>
       </c>
       <c r="E67" s="3">
@@ -3674,17 +3636,17 @@
       </c>
       <c r="F67" s="8">
         <f t="shared" si="1"/>
-        <v>242798.39030871063</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>324097.39882836951</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>66</v>
       </c>
       <c r="C68" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="19">
         <v>5</v>
       </c>
       <c r="E68" s="3">
@@ -3693,17 +3655,17 @@
       </c>
       <c r="F68" s="8">
         <f t="shared" si="1"/>
-        <v>236728.43055099287</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>315994.96385766024</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>67</v>
       </c>
       <c r="C69" s="3">
         <v>0.01</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D69" s="19">
         <v>5</v>
       </c>
       <c r="E69" s="3">
@@ -3712,17 +3674,17 @@
       </c>
       <c r="F69" s="8">
         <f t="shared" ref="F69:F77" si="3">F68+(F68*E69)</f>
-        <v>248564.85207854252</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>331794.71205054328</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>68</v>
       </c>
       <c r="C70" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D70" s="25">
+      <c r="D70" s="19">
         <v>4</v>
       </c>
       <c r="E70" s="3">
@@ -3731,17 +3693,17 @@
       </c>
       <c r="F70" s="8">
         <f t="shared" si="3"/>
-        <v>253536.14912011338</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>338430.60629155417</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>69</v>
       </c>
       <c r="C71" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D71" s="25">
+      <c r="D71" s="19">
         <v>4</v>
       </c>
       <c r="E71" s="3">
@@ -3750,17 +3712,18 @@
       </c>
       <c r="F71" s="8">
         <f t="shared" si="3"/>
-        <v>261142.23359371678</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>348583.52448030078</v>
+      </c>
+      <c r="G71" s="32"/>
+    </row>
+    <row r="72" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>70</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
       </c>
-      <c r="D72" s="25">
+      <c r="D72" s="19">
         <v>4</v>
       </c>
       <c r="E72" s="3">
@@ -3769,17 +3732,18 @@
       </c>
       <c r="F72" s="8">
         <f t="shared" si="3"/>
-        <v>261142.23359371678</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>348583.52448030078</v>
+      </c>
+      <c r="G72" s="32"/>
+    </row>
+    <row r="73" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>71</v>
       </c>
       <c r="C73" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D73" s="19">
         <v>4</v>
       </c>
       <c r="E73" s="3">
@@ -3788,17 +3752,18 @@
       </c>
       <c r="F73" s="8">
         <f t="shared" si="3"/>
-        <v>276810.76760933979</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>369498.53594911884</v>
+      </c>
+      <c r="G73" s="32"/>
+    </row>
+    <row r="74" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>72</v>
       </c>
       <c r="C74" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="19">
         <v>4</v>
       </c>
       <c r="E74" s="3">
@@ -3807,17 +3772,18 @@
       </c>
       <c r="F74" s="8">
         <f t="shared" si="3"/>
-        <v>282346.98296152661</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>376888.50666810124</v>
+      </c>
+      <c r="G74" s="32"/>
+    </row>
+    <row r="75" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>73</v>
       </c>
       <c r="C75" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D75" s="25">
+      <c r="D75" s="19">
         <v>4</v>
       </c>
       <c r="E75" s="3">
@@ -3826,17 +3792,18 @@
       </c>
       <c r="F75" s="8">
         <f t="shared" si="3"/>
-        <v>290817.3924503724</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>388195.16186814429</v>
+      </c>
+      <c r="G75" s="32"/>
+    </row>
+    <row r="76" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>74</v>
       </c>
       <c r="C76" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D76" s="25">
+      <c r="D76" s="19">
         <v>4</v>
       </c>
       <c r="E76" s="3">
@@ -3845,17 +3812,18 @@
       </c>
       <c r="F76" s="8">
         <f t="shared" si="3"/>
-        <v>285001.04460136493</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>380431.25863078143</v>
+      </c>
+      <c r="G76" s="32"/>
+    </row>
+    <row r="77" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="6">
         <v>75</v>
       </c>
       <c r="C77" s="7">
         <v>0.02</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D77" s="20">
         <v>4</v>
       </c>
       <c r="E77" s="7">
@@ -3864,35 +3832,36 @@
       </c>
       <c r="F77" s="10">
         <f t="shared" si="3"/>
-        <v>307801.12816947413</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>410865.75932124397</v>
+      </c>
+      <c r="G77" s="32"/>
+    </row>
+    <row r="78" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <v>81</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="39"/>
       <c r="E78" s="39"/>
       <c r="F78" s="40"/>
     </row>
-    <row r="79" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>82</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="25"/>
+      <c r="D79" s="19"/>
       <c r="E79" s="3"/>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>83</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" s="25"/>
+      <c r="D80" s="19"/>
       <c r="E80" s="3"/>
       <c r="F80" s="8"/>
     </row>
@@ -3901,7 +3870,7 @@
         <v>84</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="25"/>
+      <c r="D81" s="19"/>
       <c r="E81" s="3"/>
       <c r="F81" s="8"/>
     </row>
@@ -3910,7 +3879,7 @@
         <v>85</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="25"/>
+      <c r="D82" s="19"/>
       <c r="E82" s="3"/>
       <c r="F82" s="8"/>
     </row>
@@ -3919,7 +3888,7 @@
         <v>86</v>
       </c>
       <c r="C83" s="3"/>
-      <c r="D83" s="25"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="3"/>
       <c r="F83" s="8"/>
     </row>
@@ -3928,7 +3897,7 @@
         <v>87</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="25"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="3"/>
       <c r="F84" s="8"/>
     </row>
@@ -3937,7 +3906,7 @@
         <v>88</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="25"/>
+      <c r="D85" s="19"/>
       <c r="E85" s="3"/>
       <c r="F85" s="8"/>
     </row>
@@ -3946,7 +3915,7 @@
         <v>89</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" s="25"/>
+      <c r="D86" s="19"/>
       <c r="E86" s="3"/>
       <c r="F86" s="8"/>
     </row>
@@ -3955,7 +3924,7 @@
         <v>90</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="25"/>
+      <c r="D87" s="19"/>
       <c r="E87" s="3"/>
       <c r="F87" s="8"/>
     </row>
@@ -3974,10 +3943,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:F92"/>
+  <dimension ref="B1:H91"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3992,11 +3961,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -4023,14 +3992,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D3" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="13">
-        <v>0.15</v>
+        <f>C3*D3</f>
+        <v>0.18</v>
       </c>
       <c r="F3" s="8">
-        <f>6000+(6000*E3)</f>
-        <v>6900</v>
+        <f>7500+(7500*E3)</f>
+        <v>8850</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4041,14 +4011,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="13">
-        <v>0.15</v>
+        <f t="shared" ref="E4:E32" si="0">C4*D4</f>
+        <v>0.18</v>
       </c>
       <c r="F4" s="8">
         <f>F3+(F3*E4)</f>
-        <v>7935</v>
+        <v>10443</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4059,14 +4030,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D5" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="13">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="F5" s="8">
         <f>F4+(F4*E5)</f>
-        <v>9125.25</v>
+        <v>12322.74</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4077,50 +4049,53 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D6" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="13">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="F6" s="8">
         <f>F5+(F5*E6)</f>
-        <v>10494.0375</v>
+        <v>14540.833199999999</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D7" s="11">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" ref="F7:F35" si="0">F6+(F6*E7)</f>
-        <v>12068.143125000001</v>
+      <c r="D7" s="12">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" ref="F7:F32" si="1">F6+(F6*E7)</f>
+        <v>17158.183175999999</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D8" s="12">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>13878.36459375</v>
+      <c r="D8" s="11">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>20246.656147679998</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4131,14 +4106,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D9" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="13">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>15960.1192828125</v>
+        <f t="shared" si="1"/>
+        <v>23891.054254262399</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4149,14 +4125,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D10" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="13">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>18354.137175234377</v>
+        <f t="shared" si="1"/>
+        <v>28191.44402002963</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4167,14 +4144,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D11" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" s="13">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>21107.257751519533</v>
+        <f t="shared" si="1"/>
+        <v>33265.903943634963</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4185,14 +4163,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D12" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="13">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>24273.346414247462</v>
+        <f t="shared" si="1"/>
+        <v>39253.766653489256</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4203,14 +4182,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D13" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="13">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>27914.34837638458</v>
+        <f t="shared" si="1"/>
+        <v>46319.444651117323</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4221,14 +4201,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D14" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" s="13">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="0"/>
-        <v>32101.500632842268</v>
+        <f t="shared" si="1"/>
+        <v>54656.944688318443</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4239,14 +4220,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D15" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" s="13">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>36916.725727768608</v>
+        <f t="shared" si="1"/>
+        <v>64495.194732215765</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4257,53 +4239,56 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D16" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" s="13">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="0"/>
-        <v>42454.234586933897</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="6">
+        <f t="shared" si="1"/>
+        <v>76104.329784014597</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D17" s="12">
-        <v>10</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="0"/>
-        <v>48822.36977497398</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
+      <c r="D17" s="11">
+        <v>12</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
+        <v>89803.109145137219</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6">
         <v>16</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="41">
         <v>0.02</v>
       </c>
-      <c r="D18" s="11">
-        <v>10</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="0"/>
-        <v>58586.843729968779</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="12">
+        <v>9</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="1"/>
+        <v>105967.66879126192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -4311,17 +4296,18 @@
         <v>0.02</v>
       </c>
       <c r="D19" s="11">
-        <v>10</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0.2</v>
+        <v>8</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="0"/>
-        <v>70304.212475962529</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>122922.49579786383</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -4329,17 +4315,18 @@
         <v>0.02</v>
       </c>
       <c r="D20" s="11">
-        <v>10</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0.2</v>
+        <v>7</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="0"/>
-        <v>84365.054971155041</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>140131.64520956477</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -4347,17 +4334,18 @@
         <v>0.02</v>
       </c>
       <c r="D21" s="11">
-        <v>10</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.2</v>
+        <v>7</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="0"/>
-        <v>101238.06596538605</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>159750.07553890382</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -4365,35 +4353,37 @@
         <v>0.02</v>
       </c>
       <c r="D22" s="11">
-        <v>10</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0.2</v>
+        <v>6</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="0"/>
-        <v>121485.67915846326</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>178920.08460357229</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
         <v>21</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>0.02</v>
       </c>
-      <c r="D23" s="11">
-        <v>7</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="0"/>
-        <v>138493.67424064811</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="12">
+        <v>6</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="1"/>
+        <v>200390.49475600096</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -4401,17 +4391,18 @@
         <v>0.02</v>
       </c>
       <c r="D24" s="11">
-        <v>6</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0.12</v>
+        <v>5</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="0"/>
-        <v>155112.91514952588</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>220429.54423160106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -4419,17 +4410,18 @@
         <v>0.02</v>
       </c>
       <c r="D25" s="11">
-        <v>6</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0.12</v>
+        <v>5</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="0"/>
-        <v>173726.46496746899</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>242472.49865476118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -4439,15 +4431,16 @@
       <c r="D26" s="11">
         <v>5</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="0"/>
-        <v>191099.11146421588</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>266719.74852023728</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -4455,35 +4448,38 @@
         <v>0.02</v>
       </c>
       <c r="D27" s="11">
-        <v>5</v>
-      </c>
-      <c r="E27" s="18">
-        <v>0.1</v>
+        <v>4</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="0"/>
-        <v>210209.02261063748</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>288057.32840185624</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="6">
         <v>26</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="7">
         <v>0.02</v>
       </c>
-      <c r="D28" s="11">
-        <v>5</v>
-      </c>
-      <c r="E28" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="0"/>
-        <v>231229.92487170122</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="12">
+        <v>4</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="1"/>
+        <v>311101.91467400471</v>
+      </c>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -4491,17 +4487,19 @@
         <v>0.02</v>
       </c>
       <c r="D29" s="11">
-        <v>5</v>
-      </c>
-      <c r="E29" s="18">
-        <v>0.1</v>
+        <v>3</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="0"/>
-        <v>254352.91735887135</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>329768.02955444501</v>
+      </c>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -4509,17 +4507,19 @@
         <v>0.02</v>
       </c>
       <c r="D30" s="11">
-        <v>4</v>
-      </c>
-      <c r="E30" s="19">
-        <v>0.08</v>
+        <v>3</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="0"/>
-        <v>274701.15074758104</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>349554.11132771173</v>
+      </c>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -4527,199 +4527,180 @@
         <v>0.02</v>
       </c>
       <c r="D31" s="11">
-        <v>4</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0.08</v>
+        <v>3</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="0"/>
-        <v>296677.24280738749</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>370527.35800737445</v>
+      </c>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="7">
         <v>0.02</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="12">
         <v>3</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="14">
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="F32" s="8">
-        <f t="shared" si="0"/>
-        <v>314477.87737583072</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="10">
+        <f t="shared" si="1"/>
+        <v>392758.99948781694</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D33" s="11">
-        <v>3</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="0"/>
-        <v>333346.55001838057</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="D34" s="11">
-        <v>3</v>
-      </c>
-      <c r="E34" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="0"/>
-        <v>353347.34301948338</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="6">
+      <c r="C34" s="3"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="D35" s="12">
-        <v>3</v>
-      </c>
-      <c r="E35" s="20">
-        <v>0.06</v>
-      </c>
-      <c r="F35" s="10">
-        <f t="shared" si="0"/>
-        <v>374548.18360065238</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="13"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
-        <v>34</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="13"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
-        <v>35</v>
-      </c>
-      <c r="C37" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="11"/>
       <c r="E38" s="3"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="11"/>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="11"/>
       <c r="E40" s="3"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="11"/>
       <c r="E41" s="3"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="11"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -4728,16 +4709,16 @@
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -4746,7 +4727,7 @@
     </row>
     <row r="51" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -4755,7 +4736,7 @@
     </row>
     <row r="52" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4764,7 +4745,7 @@
     </row>
     <row r="53" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4773,7 +4754,7 @@
     </row>
     <row r="54" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4782,7 +4763,7 @@
     </row>
     <row r="55" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -4791,7 +4772,7 @@
     </row>
     <row r="56" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4800,7 +4781,7 @@
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4809,7 +4790,7 @@
     </row>
     <row r="58" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -4818,7 +4799,7 @@
     </row>
     <row r="59" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -4827,7 +4808,7 @@
     </row>
     <row r="60" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -4836,7 +4817,7 @@
     </row>
     <row r="61" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -4845,7 +4826,7 @@
     </row>
     <row r="62" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -4854,7 +4835,7 @@
     </row>
     <row r="63" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -4863,7 +4844,7 @@
     </row>
     <row r="64" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -4872,7 +4853,7 @@
     </row>
     <row r="65" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4881,7 +4862,7 @@
     </row>
     <row r="66" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4890,7 +4871,7 @@
     </row>
     <row r="67" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4899,7 +4880,7 @@
     </row>
     <row r="68" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4908,7 +4889,7 @@
     </row>
     <row r="69" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4917,7 +4898,7 @@
     </row>
     <row r="70" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4926,7 +4907,7 @@
     </row>
     <row r="71" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -4935,7 +4916,7 @@
     </row>
     <row r="72" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4944,7 +4925,7 @@
     </row>
     <row r="73" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4953,7 +4934,7 @@
     </row>
     <row r="74" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4962,7 +4943,7 @@
     </row>
     <row r="75" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4971,7 +4952,7 @@
     </row>
     <row r="76" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4980,7 +4961,7 @@
     </row>
     <row r="77" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -4989,7 +4970,7 @@
     </row>
     <row r="78" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4998,7 +4979,7 @@
     </row>
     <row r="79" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -5007,7 +4988,7 @@
     </row>
     <row r="80" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -5016,7 +4997,7 @@
     </row>
     <row r="81" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -5025,7 +5006,7 @@
     </row>
     <row r="82" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -5034,7 +5015,7 @@
     </row>
     <row r="83" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -5043,7 +5024,7 @@
     </row>
     <row r="84" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -5052,7 +5033,7 @@
     </row>
     <row r="85" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -5061,7 +5042,7 @@
     </row>
     <row r="86" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -5070,7 +5051,7 @@
     </row>
     <row r="87" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -5079,7 +5060,7 @@
     </row>
     <row r="88" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -5088,7 +5069,7 @@
     </row>
     <row r="89" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -5097,7 +5078,7 @@
     </row>
     <row r="90" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -5106,25 +5087,17 @@
     </row>
     <row r="91" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B92" s="1">
-        <v>90</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5138,8 +5111,8 @@
   </sheetPr>
   <dimension ref="B1:F92"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5154,11 +5127,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -5191,8 +5164,8 @@
         <v>0.15</v>
       </c>
       <c r="F3" s="8">
-        <f>6000+(6000*E3)</f>
-        <v>6900</v>
+        <f>7500+(7500*E3)</f>
+        <v>8625</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5210,25 +5183,25 @@
       </c>
       <c r="F4" s="8">
         <f>F3+(F3*E4)</f>
-        <v>7935</v>
+        <v>9918.75</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="17">
         <v>0</v>
       </c>
       <c r="D5" s="11">
         <v>10</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="17">
         <v>0</v>
       </c>
       <c r="F5" s="8">
         <f>F4+(F4*E5)</f>
-        <v>7935</v>
+        <v>9918.75</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5246,7 +5219,7 @@
       </c>
       <c r="F6" s="8">
         <f>F5+(F5*E6)</f>
-        <v>9125.25</v>
+        <v>11406.5625</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5264,7 +5237,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7:F35" si="0">F6+(F6*E7)</f>
-        <v>10494.0375</v>
+        <v>13117.546875</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5282,25 +5255,25 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>12068.143125000001</v>
+        <v>15085.178906249999</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <v>0</v>
       </c>
       <c r="D9" s="11">
         <v>10</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="17">
         <v>0</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>12068.143125000001</v>
+        <v>15085.178906249999</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5318,7 +5291,7 @@
       </c>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>13878.36459375</v>
+        <v>17347.9557421875</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5336,7 +5309,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>15960.1192828125</v>
+        <v>19950.149103515625</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5354,25 +5327,25 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
-        <v>18354.137175234377</v>
+        <v>22942.671469042969</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="17">
         <v>0</v>
       </c>
       <c r="D13" s="11">
         <v>10</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="17">
         <v>0</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
-        <v>18354.137175234377</v>
+        <v>22942.671469042969</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5390,7 +5363,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
-        <v>21107.257751519533</v>
+        <v>26384.072189399412</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5408,7 +5381,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
-        <v>24273.346414247462</v>
+        <v>30341.683017809322</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5426,25 +5399,25 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
-        <v>27914.34837638458</v>
+        <v>34892.935470480719</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>15</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="18">
         <v>0</v>
       </c>
       <c r="D17" s="12">
         <v>10</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="18">
         <v>0</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>27914.34837638458</v>
+        <v>34892.935470480719</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5462,7 +5435,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" si="0"/>
-        <v>33497.218051661497</v>
+        <v>41871.522564576866</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5480,7 +5453,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>40196.661661993799</v>
+        <v>50245.827077492242</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5498,25 +5471,25 @@
       </c>
       <c r="F20" s="8">
         <f t="shared" si="0"/>
-        <v>48235.993994392556</v>
+        <v>60294.992492990692</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="17">
         <v>0</v>
       </c>
       <c r="D21" s="11">
         <v>10</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="17">
         <v>0</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>48235.993994392556</v>
+        <v>60294.992492990692</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5534,7 +5507,7 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="0"/>
-        <v>57883.192793271068</v>
+        <v>72353.990991588827</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5552,7 +5525,7 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="0"/>
-        <v>69459.831351925284</v>
+        <v>86824.789189906587</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5570,25 +5543,25 @@
       </c>
       <c r="F24" s="8">
         <f t="shared" si="0"/>
-        <v>83351.797622310347</v>
+        <v>104189.7470278879</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="17">
         <v>0</v>
       </c>
       <c r="D25" s="11">
         <v>10</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="17">
         <v>0</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="0"/>
-        <v>83351.797622310347</v>
+        <v>104189.7470278879</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5606,7 +5579,7 @@
       </c>
       <c r="F26" s="8">
         <f t="shared" si="0"/>
-        <v>100022.15714677241</v>
+        <v>125027.69643346549</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5624,7 +5597,7 @@
       </c>
       <c r="F27" s="8">
         <f t="shared" si="0"/>
-        <v>120026.5885761269</v>
+        <v>150033.23572015858</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5642,25 +5615,25 @@
       </c>
       <c r="F28" s="8">
         <f t="shared" si="0"/>
-        <v>144031.90629135229</v>
+        <v>180039.88286419029</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="17">
         <v>0</v>
       </c>
       <c r="D29" s="11">
         <v>10</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="17">
         <v>0</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" si="0"/>
-        <v>144031.90629135229</v>
+        <v>180039.88286419029</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5678,7 +5651,7 @@
       </c>
       <c r="F30" s="8">
         <f t="shared" si="0"/>
-        <v>172838.28754962276</v>
+        <v>216047.85943702835</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5696,7 +5669,7 @@
       </c>
       <c r="F31" s="8">
         <f t="shared" si="0"/>
-        <v>207405.94505954732</v>
+        <v>259257.43132443403</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5714,25 +5687,25 @@
       </c>
       <c r="F32" s="8">
         <f t="shared" si="0"/>
-        <v>248887.13407145679</v>
+        <v>311108.91758932086</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="17">
         <v>0</v>
       </c>
       <c r="D33" s="11">
         <v>10</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="17">
         <v>0</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="0"/>
-        <v>248887.13407145679</v>
+        <v>311108.91758932086</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5750,7 +5723,7 @@
       </c>
       <c r="F34" s="8">
         <f t="shared" si="0"/>
-        <v>298664.56088574813</v>
+        <v>373330.70110718504</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5763,12 +5736,12 @@
       <c r="D35" s="12">
         <v>10</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="16">
         <v>0.2</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="0"/>
-        <v>358397.47306289774</v>
+        <v>447996.84132862207</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6300,8 +6273,8 @@
   </sheetPr>
   <dimension ref="B1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6316,11 +6289,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -6354,8 +6327,8 @@
         <v>0.18</v>
       </c>
       <c r="F3" s="8">
-        <f>6500+(6500*E3)</f>
-        <v>7670</v>
+        <f>7500+(7500*E3)</f>
+        <v>8850</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6374,7 +6347,7 @@
       </c>
       <c r="F4" s="8">
         <f>F3+(F3*E4)</f>
-        <v>9050.6</v>
+        <v>10443</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6393,14 +6366,14 @@
       </c>
       <c r="F5" s="8">
         <f>F4+(F4*E5)</f>
-        <v>10136.672</v>
+        <v>11696.16</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="31">
         <v>0</v>
       </c>
       <c r="D6" s="11">
@@ -6412,7 +6385,7 @@
       </c>
       <c r="F6" s="8">
         <f>F5+(F5*E6)</f>
-        <v>10136.672</v>
+        <v>11696.16</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6431,7 +6404,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7:F44" si="1">F6+(F6*E7)</f>
-        <v>11961.27296</v>
+        <v>13801.468799999999</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6450,7 +6423,7 @@
       </c>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>14114.302092800001</v>
+        <v>16285.733183999999</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6469,14 +6442,14 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" si="1"/>
-        <v>15808.018343936001</v>
+        <v>18240.021166079998</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="31">
         <v>0</v>
       </c>
       <c r="D10" s="11">
@@ -6488,7 +6461,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>15808.018343936001</v>
+        <v>18240.021166079998</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6507,7 +6480,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" si="1"/>
-        <v>18653.46164584448</v>
+        <v>21523.224975974397</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6526,7 +6499,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" si="1"/>
-        <v>22011.084742096486</v>
+        <v>25397.405471649789</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6545,14 +6518,14 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" si="1"/>
-        <v>24652.414911148066</v>
+        <v>28445.094128247762</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="31">
         <v>0</v>
       </c>
       <c r="D14" s="11">
@@ -6564,7 +6537,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" si="1"/>
-        <v>24652.414911148066</v>
+        <v>28445.094128247762</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6583,7 +6556,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" si="1"/>
-        <v>29089.849595154716</v>
+        <v>33565.211071332356</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6602,7 +6575,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>34326.022522282561</v>
+        <v>39606.949064172179</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6621,14 +6594,14 @@
       </c>
       <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>38445.145224956468</v>
+        <v>44359.782951872839</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="31">
         <v>0</v>
       </c>
       <c r="D18" s="11">
@@ -6640,7 +6613,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
-        <v>38445.145224956468</v>
+        <v>44359.782951872839</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6659,7 +6632,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" si="1"/>
-        <v>47671.980078946021</v>
+        <v>55006.130860322322</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6678,7 +6651,7 @@
       </c>
       <c r="F20" s="8">
         <f t="shared" si="1"/>
-        <v>59113.255297893062</v>
+        <v>68207.602266799673</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6697,14 +6670,14 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" si="1"/>
-        <v>66206.84593364023</v>
+        <v>76392.514538815638</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="31">
         <v>0</v>
       </c>
       <c r="D22" s="11">
@@ -6716,7 +6689,7 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="1"/>
-        <v>66206.84593364023</v>
+        <v>76392.514538815638</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6735,7 +6708,7 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="1"/>
-        <v>82096.488957713882</v>
+        <v>94726.718028131392</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6754,7 +6727,7 @@
       </c>
       <c r="F24" s="10">
         <f t="shared" si="1"/>
-        <v>100157.71652841094</v>
+        <v>115566.59599432029</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6773,14 +6746,14 @@
       </c>
       <c r="F25" s="8">
         <f t="shared" si="1"/>
-        <v>111175.06534653614</v>
+        <v>128278.92155369552</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="31">
         <v>0</v>
       </c>
       <c r="D26" s="11">
@@ -6792,7 +6765,7 @@
       </c>
       <c r="F26" s="8">
         <f t="shared" si="1"/>
-        <v>111175.06534653614</v>
+        <v>128278.92155369552</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6811,7 +6784,7 @@
       </c>
       <c r="F27" s="8">
         <f t="shared" si="1"/>
-        <v>128963.07580198192</v>
+        <v>148803.5490022868</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6830,7 +6803,7 @@
       </c>
       <c r="F28" s="8">
         <f t="shared" si="1"/>
-        <v>149597.16793029904</v>
+        <v>172612.1168426527</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6849,14 +6822,14 @@
       </c>
       <c r="F29" s="8">
         <f t="shared" si="1"/>
-        <v>160068.96968541999</v>
+        <v>184694.9650216384</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="31">
         <v>0</v>
       </c>
       <c r="D30" s="11">
@@ -6868,7 +6841,7 @@
       </c>
       <c r="F30" s="8">
         <f t="shared" si="1"/>
-        <v>160068.96968541999</v>
+        <v>184694.9650216384</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6887,7 +6860,7 @@
       </c>
       <c r="F31" s="8">
         <f t="shared" si="1"/>
-        <v>179277.24604767037</v>
+        <v>206858.36082423502</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6906,7 +6879,7 @@
       </c>
       <c r="F32" s="10">
         <f t="shared" si="1"/>
-        <v>200790.51557339082</v>
+        <v>231681.36412314323</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6925,14 +6898,14 @@
       </c>
       <c r="F33" s="8">
         <f t="shared" si="1"/>
-        <v>210830.04135206036</v>
+        <v>243265.43232930038</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="31">
         <v>0</v>
       </c>
       <c r="D34" s="11">
@@ -6944,7 +6917,7 @@
       </c>
       <c r="F34" s="8">
         <f t="shared" si="1"/>
-        <v>210830.04135206036</v>
+        <v>243265.43232930038</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6963,7 +6936,7 @@
       </c>
       <c r="F35" s="8">
         <f t="shared" si="1"/>
-        <v>231913.04548726638</v>
+        <v>267591.97556223045</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6982,7 +6955,7 @@
       </c>
       <c r="F36" s="8">
         <f t="shared" si="1"/>
-        <v>250466.08912624768</v>
+        <v>288999.33360720892</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7001,14 +6974,14 @@
       </c>
       <c r="F37" s="8">
         <f t="shared" si="1"/>
-        <v>260484.7326912976</v>
+        <v>300559.30695149727</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C38" s="31">
         <v>0</v>
       </c>
       <c r="D38" s="11">
@@ -7020,7 +6993,7 @@
       </c>
       <c r="F38" s="8">
         <f t="shared" si="1"/>
-        <v>260484.7326912976</v>
+        <v>300559.30695149727</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7039,7 +7012,7 @@
       </c>
       <c r="F39" s="8">
         <f t="shared" si="1"/>
-        <v>281323.5113066014</v>
+        <v>324604.05150761706</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7058,7 +7031,7 @@
       </c>
       <c r="F40" s="8">
         <f t="shared" si="1"/>
-        <v>303829.39221112954</v>
+        <v>350572.37562822644</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7077,14 +7050,14 @@
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>312944.27397746342</v>
+        <v>361089.54689707322</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>41</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C42" s="31">
         <v>0</v>
       </c>
       <c r="D42" s="11">
@@ -7096,7 +7069,7 @@
       </c>
       <c r="F42" s="8">
         <f t="shared" si="1"/>
-        <v>312944.27397746342</v>
+        <v>361089.54689707322</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7115,7 +7088,7 @@
       </c>
       <c r="F43" s="8">
         <f t="shared" si="1"/>
-        <v>331720.93041611125</v>
+        <v>382754.91971089761</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7134,19 +7107,19 @@
       </c>
       <c r="F44" s="10">
         <f t="shared" si="1"/>
-        <v>351624.1862410779</v>
+        <v>405720.21489355149</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>49</v>
       </c>
-      <c r="C45" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
+      <c r="C45" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
     </row>
     <row r="46" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
@@ -7170,7 +7143,7 @@
       <c r="B48" s="1">
         <v>52</v>
       </c>
-      <c r="C48" s="23"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="11"/>
       <c r="E48" s="3"/>
       <c r="F48" s="8"/>
@@ -7206,7 +7179,7 @@
       <c r="B52" s="1">
         <v>56</v>
       </c>
-      <c r="C52" s="23"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="8"/>
@@ -7242,7 +7215,7 @@
       <c r="B56" s="1">
         <v>60</v>
       </c>
-      <c r="C56" s="23"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="8"/>
@@ -7532,10 +7505,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:F92"/>
+  <dimension ref="B1:G92"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7549,14 +7522,14 @@
     <col min="7" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -7573,7 +7546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -7588,11 +7561,11 @@
         <v>0.18</v>
       </c>
       <c r="F3" s="8">
-        <f>6000+(6000*E3)</f>
-        <v>7080</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f>7500+(7500*E3)</f>
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -7608,10 +7581,10 @@
       </c>
       <c r="F4" s="8">
         <f>F3+(F3*E4)</f>
-        <v>7929.6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9912</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -7627,14 +7600,15 @@
       </c>
       <c r="F5" s="8">
         <f>F4+(F4*E5)</f>
-        <v>8405.3760000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10506.72</v>
+      </c>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D6" s="11">
@@ -7646,10 +7620,10 @@
       </c>
       <c r="F6" s="8">
         <f>F5+(F5*E6)</f>
-        <v>7901.0534400000006</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9876.3167999999987</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -7665,10 +7639,10 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7:F59" si="1">F6+(F6*E7)</f>
-        <v>9323.2430592000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11654.053823999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -7684,10 +7658,10 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" si="1"/>
-        <v>10442.032226304</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13052.540282879998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -7703,14 +7677,14 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" si="1"/>
-        <v>11068.55415988224</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13835.692699852798</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D10" s="11">
@@ -7722,10 +7696,10 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>10404.440910289306</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13005.55113786163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -7741,10 +7715,10 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" si="1"/>
-        <v>12277.240274141381</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15346.550342676725</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -7760,10 +7734,10 @@
       </c>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>13750.509107038346</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17188.13638379793</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -7779,14 +7753,14 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" si="1"/>
-        <v>14575.539653460646</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18219.424566825805</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D14" s="11">
@@ -7798,10 +7772,10 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" si="1"/>
-        <v>13701.007274253006</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17126.259092816257</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -7817,10 +7791,10 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" si="1"/>
-        <v>16167.188583618547</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20208.985729523185</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -7836,7 +7810,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>18107.251213652773</v>
+        <v>22634.064017065968</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7855,14 +7829,14 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" si="1"/>
-        <v>19193.686286471941</v>
+        <v>23992.107858089927</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D18" s="11">
@@ -7874,7 +7848,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
-        <v>18042.065109283623</v>
+        <v>22552.581386604532</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7893,7 +7867,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" si="1"/>
-        <v>22372.160735511694</v>
+        <v>27965.200919389619</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7912,7 +7886,7 @@
       </c>
       <c r="F20" s="8">
         <f t="shared" si="1"/>
-        <v>25056.820023773096</v>
+        <v>31321.025029716373</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7931,14 +7905,14 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" si="1"/>
-        <v>26560.22922519948</v>
+        <v>33200.286531499354</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D22" s="11">
@@ -7950,7 +7924,7 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="1"/>
-        <v>24966.61547168751</v>
+        <v>31208.269339609393</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7969,7 +7943,7 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="1"/>
-        <v>30958.603184892512</v>
+        <v>38698.253981115646</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7988,7 +7962,7 @@
       </c>
       <c r="F24" s="8">
         <f t="shared" si="1"/>
-        <v>34673.635567079611</v>
+        <v>43342.044458849523</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8007,14 +7981,14 @@
       </c>
       <c r="F25" s="8">
         <f t="shared" si="1"/>
-        <v>36754.053701104385</v>
+        <v>45942.567126380498</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D26" s="11">
@@ -8026,7 +8000,7 @@
       </c>
       <c r="F26" s="8">
         <f t="shared" si="1"/>
-        <v>34548.810479038119</v>
+        <v>43186.013098797666</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8045,7 +8019,7 @@
       </c>
       <c r="F27" s="8">
         <f t="shared" si="1"/>
-        <v>42840.524994007268</v>
+        <v>53550.656242509103</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8064,7 +8038,7 @@
       </c>
       <c r="F28" s="8">
         <f t="shared" si="1"/>
-        <v>47981.387993288139</v>
+        <v>59976.734991610196</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8083,14 +8057,14 @@
       </c>
       <c r="F29" s="8">
         <f t="shared" si="1"/>
-        <v>50860.271272885424</v>
+        <v>63575.339091106805</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D30" s="11">
@@ -8102,7 +8076,7 @@
       </c>
       <c r="F30" s="8">
         <f t="shared" si="1"/>
-        <v>47808.654996512298</v>
+        <v>59760.818745640398</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8121,7 +8095,7 @@
       </c>
       <c r="F31" s="8">
         <f t="shared" si="1"/>
-        <v>59282.732195675249</v>
+        <v>74103.4152445941</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8140,7 +8114,7 @@
       </c>
       <c r="F32" s="10">
         <f t="shared" si="1"/>
-        <v>66396.660059156275</v>
+        <v>82995.825073945394</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8159,14 +8133,14 @@
       </c>
       <c r="F33" s="8">
         <f t="shared" si="1"/>
-        <v>70380.459662705645</v>
+        <v>87975.574578382118</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D34" s="11">
@@ -8178,7 +8152,7 @@
       </c>
       <c r="F34" s="8">
         <f t="shared" si="1"/>
-        <v>66157.63208294331</v>
+        <v>82697.040103679188</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8197,7 +8171,7 @@
       </c>
       <c r="F35" s="8">
         <f t="shared" si="1"/>
-        <v>82035.463782849707</v>
+        <v>102544.3297285622</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8216,7 +8190,7 @@
       </c>
       <c r="F36" s="8">
         <f t="shared" si="1"/>
-        <v>91879.719436791667</v>
+        <v>114849.64929598966</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8235,14 +8209,14 @@
       </c>
       <c r="F37" s="8">
         <f t="shared" si="1"/>
-        <v>97392.502602999171</v>
+        <v>121740.62825374903</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>36</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D38" s="11">
@@ -8254,7 +8228,7 @@
       </c>
       <c r="F38" s="8">
         <f t="shared" si="1"/>
-        <v>92035.914959834219</v>
+        <v>115044.89369979284</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8273,7 +8247,7 @@
       </c>
       <c r="F39" s="8">
         <f t="shared" si="1"/>
-        <v>110443.09795180106</v>
+        <v>138053.8724397514</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8292,7 +8266,7 @@
       </c>
       <c r="F40" s="8">
         <f t="shared" si="1"/>
-        <v>120382.97676746314</v>
+        <v>150478.72095932902</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8311,14 +8285,14 @@
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>125198.29583816166</v>
+        <v>156497.86979770218</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D42" s="11">
@@ -8330,7 +8304,7 @@
       </c>
       <c r="F42" s="8">
         <f t="shared" si="1"/>
-        <v>120190.36400463519</v>
+        <v>150237.95500579409</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8349,7 +8323,7 @@
       </c>
       <c r="F43" s="8">
         <f t="shared" si="1"/>
-        <v>139420.82224537682</v>
+        <v>174276.02780672116</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8368,7 +8342,7 @@
       </c>
       <c r="F44" s="8">
         <f t="shared" si="1"/>
-        <v>149180.27980255321</v>
+        <v>186475.34975319164</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8387,14 +8361,14 @@
       </c>
       <c r="F45" s="8">
         <f t="shared" si="1"/>
-        <v>154401.58959564258</v>
+        <v>193001.98699455336</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>44</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D46" s="11">
@@ -8406,7 +8380,7 @@
       </c>
       <c r="F46" s="8">
         <f t="shared" si="1"/>
-        <v>148997.53395979508</v>
+        <v>186246.91744974398</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8425,7 +8399,7 @@
       </c>
       <c r="F47" s="8">
         <f t="shared" si="1"/>
-        <v>166877.23803497048</v>
+        <v>208596.54754371327</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8444,10 +8418,10 @@
       </c>
       <c r="F48" s="8">
         <f t="shared" si="1"/>
-        <v>176889.87231706872</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>221112.34039633608</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -8463,14 +8437,14 @@
       </c>
       <c r="F49" s="8">
         <f t="shared" si="1"/>
-        <v>182196.56848658077</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>227745.71060822616</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D50" s="11">
@@ -8482,10 +8456,10 @@
       </c>
       <c r="F50" s="8">
         <f t="shared" si="1"/>
-        <v>176730.67143198336</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>220913.33928997937</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -8501,10 +8475,10 @@
       </c>
       <c r="F51" s="8">
         <f t="shared" si="1"/>
-        <v>197938.35200382135</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>247422.9400047769</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -8520,10 +8494,10 @@
       </c>
       <c r="F52" s="8">
         <f t="shared" si="1"/>
-        <v>207835.26960401243</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>259794.08700501575</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -8539,14 +8513,14 @@
       </c>
       <c r="F53" s="8">
         <f t="shared" si="1"/>
-        <v>213031.15134411273</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>266288.93918014114</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>52</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D54" s="11">
@@ -8558,10 +8532,10 @@
       </c>
       <c r="F54" s="8">
         <f t="shared" si="1"/>
-        <v>207705.37256050992</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>259631.71570063761</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -8577,10 +8551,10 @@
       </c>
       <c r="F55" s="8">
         <f t="shared" si="1"/>
-        <v>228475.90981656092</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>285594.88727070135</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -8596,10 +8570,10 @@
       </c>
       <c r="F56" s="8">
         <f t="shared" si="1"/>
-        <v>239899.70530738897</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>299874.63163423643</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -8615,14 +8589,15 @@
       </c>
       <c r="F57" s="8">
         <f t="shared" si="1"/>
-        <v>245897.1979400737</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>307371.49742509233</v>
+      </c>
+      <c r="G57" s="32"/>
+    </row>
+    <row r="58" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>56</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D58" s="11">
@@ -8634,10 +8609,11 @@
       </c>
       <c r="F58" s="8">
         <f t="shared" si="1"/>
-        <v>240979.25398127222</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>301224.06747659046</v>
+      </c>
+      <c r="G58" s="32"/>
+    </row>
+    <row r="59" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -8653,10 +8629,11 @@
       </c>
       <c r="F59" s="8">
         <f t="shared" si="1"/>
-        <v>260257.59429977401</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>325321.99287471769</v>
+      </c>
+      <c r="G59" s="32"/>
+    </row>
+    <row r="60" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -8672,10 +8649,11 @@
       </c>
       <c r="F60" s="8">
         <f>F59+(F59*E60)</f>
-        <v>270667.89807176497</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>338334.87258970639</v>
+      </c>
+      <c r="G60" s="32"/>
+    </row>
+    <row r="61" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -8691,14 +8669,15 @@
       </c>
       <c r="F61" s="8">
         <f t="shared" ref="F61:F65" si="2">F60+(F60*E61)</f>
-        <v>276081.25603320025</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>345101.5700415005</v>
+      </c>
+      <c r="G61" s="32"/>
+    </row>
+    <row r="62" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>60</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D62" s="11">
@@ -8710,10 +8689,11 @@
       </c>
       <c r="F62" s="8">
         <f t="shared" si="2"/>
-        <v>270559.63091253623</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>338199.53864067048</v>
+      </c>
+      <c r="G62" s="32"/>
+    </row>
+    <row r="63" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -8729,10 +8709,11 @@
       </c>
       <c r="F63" s="8">
         <f t="shared" si="2"/>
-        <v>292204.40138553915</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>365255.50173192413</v>
+      </c>
+      <c r="G63" s="32"/>
+    </row>
+    <row r="64" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -8748,10 +8729,11 @@
       </c>
       <c r="F64" s="8">
         <f t="shared" si="2"/>
-        <v>300970.53342710534</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>376213.16678388184</v>
+      </c>
+      <c r="G64" s="32"/>
+    </row>
+    <row r="65" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="6">
         <v>63</v>
       </c>
@@ -8767,21 +8749,23 @@
       </c>
       <c r="F65" s="10">
         <f t="shared" si="2"/>
-        <v>305485.09142851195</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>381856.36428564007</v>
+      </c>
+      <c r="G65" s="32"/>
+    </row>
+    <row r="66" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="43"/>
-    </row>
-    <row r="67" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C66" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="32"/>
+    </row>
+    <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -8790,7 +8774,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -8799,7 +8783,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -8808,7 +8792,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -8817,7 +8801,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -8826,7 +8810,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -8835,7 +8819,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -8844,7 +8828,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -8853,7 +8837,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -8862,7 +8846,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -8871,7 +8855,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -8880,7 +8864,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -8889,7 +8873,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -8898,7 +8882,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -9033,7 +9017,7 @@
   <dimension ref="B1:F82"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9048,11 +9032,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -9075,1019 +9059,1019 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="21">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D3" s="11">
         <v>12</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="27">
         <f>C3*D3</f>
         <v>0.18</v>
       </c>
       <c r="F3" s="8">
-        <f>6000+(6000*E3)</f>
-        <v>7080</v>
+        <f>7500+(7500*E3)</f>
+        <v>8850</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="22">
         <v>0.01</v>
       </c>
       <c r="D4" s="11">
         <v>12</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="27">
         <f t="shared" ref="E4:E55" si="0">C4*D4</f>
         <v>0.12</v>
       </c>
       <c r="F4" s="8">
         <f>F3+(F3*E4)</f>
-        <v>7929.6</v>
+        <v>9912</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="23">
         <v>0.01</v>
       </c>
       <c r="D5" s="11">
         <v>12</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="27">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F5" s="8">
         <f>F4+(F4*E5)</f>
-        <v>8881.152</v>
+        <v>11101.44</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D6" s="11">
         <v>12</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>-0.06</v>
       </c>
       <c r="F6" s="8">
         <f>F5+(F5*E6)</f>
-        <v>8348.2828800000007</v>
+        <v>10435.3536</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="22">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D7" s="11">
         <v>12</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7:F55" si="1">F6+(F6*E7)</f>
-        <v>9850.9737984000003</v>
+        <v>12313.717248000001</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="22">
         <v>0.01</v>
       </c>
       <c r="D8" s="11">
         <v>12</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="1"/>
-        <v>11033.090654208001</v>
+        <v>13791.36331776</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="23">
         <v>0.01</v>
       </c>
       <c r="D9" s="11">
         <v>12</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="27">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="1"/>
-        <v>12357.061532712962</v>
+        <v>15446.326915891201</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D10" s="11">
         <v>12</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="27">
         <f t="shared" si="0"/>
         <v>-0.06</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>11615.637840750183</v>
+        <v>14519.547300937729</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D11" s="12">
         <v>12</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="28">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>13706.452652085216</v>
+        <v>17133.065815106522</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="22">
         <v>0.01</v>
       </c>
       <c r="D12" s="11">
         <v>12</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="27">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="1"/>
-        <v>15351.226970335441</v>
+        <v>19189.033712919303</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="23">
         <v>0.01</v>
       </c>
       <c r="D13" s="11">
         <v>12</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="1"/>
-        <v>17193.374206775694</v>
+        <v>21491.717758469618</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D14" s="11">
         <v>12</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>-0.06</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="1"/>
-        <v>16161.771754369152</v>
+        <v>20202.214692961443</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="22">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D15" s="11">
         <v>12</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="1"/>
-        <v>19070.890670155601</v>
+        <v>23838.613337694504</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="22">
         <v>0.01</v>
       </c>
       <c r="D16" s="11">
         <v>12</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="27">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>21359.397550574271</v>
+        <v>26699.246938217842</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="23">
         <v>0.01</v>
       </c>
       <c r="D17" s="11">
         <v>12</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="27">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="1"/>
-        <v>23922.525256643185</v>
+        <v>29903.156570803985</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D18" s="11">
         <v>12</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="27">
         <f t="shared" si="0"/>
         <v>-0.06</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
-        <v>22487.173741244595</v>
+        <v>28108.967176555747</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <v>0.02</v>
       </c>
       <c r="D19" s="11">
         <v>12</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="27">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="1"/>
-        <v>27884.095439143297</v>
+        <v>34855.119298929123</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="22">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D20" s="11">
         <v>12</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="27">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="1"/>
-        <v>32903.232618189089</v>
+        <v>41129.040772736364</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="23">
         <v>0.01</v>
       </c>
       <c r="D21" s="11">
         <v>12</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="27">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="1"/>
-        <v>36851.62053237178</v>
+        <v>46064.525665464724</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D22" s="11">
         <v>12</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="27">
         <f t="shared" si="0"/>
         <v>-0.06</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="1"/>
-        <v>34640.523300429471</v>
+        <v>43300.654125536843</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="23">
         <v>0.02</v>
       </c>
       <c r="D23" s="11">
         <v>12</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="27">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="1"/>
-        <v>42954.248892532545</v>
+        <v>53692.811115665681</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="23">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D24" s="11">
         <v>12</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="27">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" si="1"/>
-        <v>50686.013693188404</v>
+        <v>63357.517116485506</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="23">
         <v>0.01</v>
       </c>
       <c r="D25" s="11">
         <v>12</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="27">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="1"/>
-        <v>56768.335336371012</v>
+        <v>70960.419170463763</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D26" s="11">
         <v>12</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="27">
         <f t="shared" si="0"/>
         <v>-0.06</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="1"/>
-        <v>53362.235216188754</v>
+        <v>66702.794020235931</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="23">
         <v>0.02</v>
       </c>
       <c r="D27" s="11">
         <v>12</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="27">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" si="1"/>
-        <v>66169.17166807405</v>
+        <v>82711.464585092559</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="23">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D28" s="11">
         <v>12</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="27">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" si="1"/>
-        <v>78079.622568327381</v>
+        <v>97599.528210409218</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="23">
         <v>0.01</v>
       </c>
       <c r="D29" s="11">
         <v>12</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="27">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" si="1"/>
-        <v>87449.177276526665</v>
+        <v>109311.47159565832</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D30" s="11">
         <v>12</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="27">
         <f t="shared" si="0"/>
         <v>-0.06</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" si="1"/>
-        <v>82202.226639935063</v>
+        <v>102752.78329991882</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="23">
         <v>0.02</v>
       </c>
       <c r="D31" s="11">
         <v>12</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="27">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="1"/>
-        <v>101930.76103351948</v>
+        <v>127413.45129189934</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="26">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D32" s="12">
         <v>9</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="28">
         <f t="shared" si="0"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="1"/>
-        <v>115691.41377304461</v>
+        <v>144614.26721630574</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="23">
         <v>0.01</v>
       </c>
       <c r="D33" s="11">
         <v>9</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="27">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="1"/>
-        <v>126103.64101261862</v>
+        <v>157629.55126577325</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D34" s="11">
         <v>8</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="27">
         <f t="shared" si="0"/>
         <v>-0.04</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="1"/>
-        <v>121059.49537211387</v>
+        <v>151324.36921514233</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="23">
         <v>0.02</v>
       </c>
       <c r="D35" s="11">
         <v>8</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="27">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" si="1"/>
-        <v>140429.0146316521</v>
+        <v>175536.26828956511</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="23">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="29">
         <f t="shared" si="0"/>
         <v>0.105</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="1"/>
-        <v>155174.06116797557</v>
+        <v>193967.57645996945</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="23">
         <v>0.01</v>
       </c>
       <c r="D37" s="11">
         <v>7</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="29">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="1"/>
-        <v>166036.24544973386</v>
+        <v>207545.30681216731</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>36</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D38" s="11">
         <v>7</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="29">
         <f t="shared" si="0"/>
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="1"/>
-        <v>160224.97685899318</v>
+        <v>200281.22107374144</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>37</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="23">
         <v>0.02</v>
       </c>
       <c r="D39" s="11">
         <v>7</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="29">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="1"/>
-        <v>182656.47361925221</v>
+        <v>228320.59202406526</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="23">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D40" s="11">
         <v>5</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="29">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="1"/>
-        <v>196355.70914069613</v>
+        <v>245444.63642587015</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="23">
         <v>0.01</v>
       </c>
       <c r="D41" s="11">
         <v>5</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="29">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="1"/>
-        <v>206173.49459773093</v>
+        <v>257716.86824716366</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D42" s="11">
         <v>5</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="29">
         <f t="shared" si="0"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" si="1"/>
-        <v>201019.15723278766</v>
+        <v>251273.94654098456</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="23">
         <v>0.02</v>
       </c>
       <c r="D43" s="11">
         <v>5</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="29">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" si="1"/>
-        <v>221121.07295606643</v>
+        <v>276401.34119508299</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="23">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D44" s="11">
         <v>5</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="29">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" si="1"/>
-        <v>237705.15342777141</v>
+        <v>297131.44178471423</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>43</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="23">
         <v>0.01</v>
       </c>
       <c r="D45" s="11">
         <v>5</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="29">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" si="1"/>
-        <v>249590.41109915997</v>
+        <v>311988.01387394994</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>44</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D46" s="11">
         <v>4</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="29">
         <f t="shared" si="0"/>
         <v>-0.02</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" si="1"/>
-        <v>244598.60287717677</v>
+        <v>305748.25359647092</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>45</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="23">
         <v>0.02</v>
       </c>
       <c r="D47" s="11">
         <v>4</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="29">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" si="1"/>
-        <v>264166.49110735091</v>
+        <v>330208.11388418858</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="22">
         <v>0.01</v>
       </c>
       <c r="D48" s="11">
         <v>4</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="29">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="F48" s="8">
         <f t="shared" si="1"/>
-        <v>274733.15075164498</v>
+        <v>343416.43843955611</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>47</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D49" s="11">
         <v>4</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="29">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="F49" s="8">
         <f t="shared" si="1"/>
-        <v>280227.81376667786</v>
+        <v>350284.76720834721</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C50" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D50" s="11">
         <v>4</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="29">
         <f t="shared" si="0"/>
         <v>-0.02</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" si="1"/>
-        <v>274623.25749134429</v>
+        <v>343279.07186418027</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>49</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="23">
         <v>0.02</v>
       </c>
       <c r="D51" s="11">
         <v>3</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="29">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="F51" s="8">
         <f t="shared" si="1"/>
-        <v>291100.65294082498</v>
+        <v>363875.81617603108</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="22">
         <v>0.01</v>
       </c>
       <c r="D52" s="11">
         <v>3</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="29">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="F52" s="8">
         <f t="shared" si="1"/>
-        <v>299833.67252904974</v>
+        <v>374792.09066131199</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D53" s="11">
         <v>3</v>
       </c>
-      <c r="E53" s="35">
+      <c r="E53" s="29">
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F53" s="8">
         <f t="shared" si="1"/>
-        <v>304331.17761698551</v>
+        <v>380413.97202123166</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>52</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="24">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D54" s="11">
         <v>3</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="29">
         <f t="shared" si="0"/>
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="F54" s="8">
         <f t="shared" si="1"/>
-        <v>299766.20995273074</v>
+        <v>374707.76244091318</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="6">
         <v>53</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="26">
         <v>0.02</v>
       </c>
       <c r="D55" s="12">
         <v>3</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="30">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="F55" s="10">
         <f t="shared" si="1"/>
-        <v>317752.18254989461</v>
+        <v>397190.22818736796</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>64</v>
       </c>
-      <c r="C56" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
+      <c r="C56" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
